--- a/stock/data/메리츠금융지주.xlsx
+++ b/stock/data/메리츠금융지주.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3176"/>
+  <dimension ref="A1:G3209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73493,10 +73493,769 @@
         <v>81700</v>
       </c>
       <c r="F3176" t="n">
-        <v>243319</v>
+        <v>245571</v>
       </c>
       <c r="G3176" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3177" t="n">
+        <v>81700</v>
+      </c>
+      <c r="C3177" t="n">
+        <v>82800</v>
+      </c>
+      <c r="D3177" t="n">
+        <v>80900</v>
+      </c>
+      <c r="E3177" t="n">
+        <v>82000</v>
+      </c>
+      <c r="F3177" t="n">
+        <v>252269</v>
+      </c>
+      <c r="G3177" t="n">
+        <v>0.3671970624235006</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3178" t="n">
+        <v>81300</v>
+      </c>
+      <c r="C3178" t="n">
+        <v>82500</v>
+      </c>
+      <c r="D3178" t="n">
+        <v>80700</v>
+      </c>
+      <c r="E3178" t="n">
+        <v>81100</v>
+      </c>
+      <c r="F3178" t="n">
+        <v>317093</v>
+      </c>
+      <c r="G3178" t="n">
+        <v>-1.097560975609756</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3179" t="n">
+        <v>81000</v>
+      </c>
+      <c r="C3179" t="n">
+        <v>81100</v>
+      </c>
+      <c r="D3179" t="n">
+        <v>79700</v>
+      </c>
+      <c r="E3179" t="n">
+        <v>80200</v>
+      </c>
+      <c r="F3179" t="n">
+        <v>311454</v>
+      </c>
+      <c r="G3179" t="n">
+        <v>-1.109741060419235</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3180" t="n">
+        <v>81000</v>
+      </c>
+      <c r="C3180" t="n">
+        <v>83100</v>
+      </c>
+      <c r="D3180" t="n">
+        <v>80300</v>
+      </c>
+      <c r="E3180" t="n">
+        <v>82600</v>
+      </c>
+      <c r="F3180" t="n">
+        <v>311164</v>
+      </c>
+      <c r="G3180" t="n">
+        <v>2.992518703241895</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3181" t="n">
+        <v>81800</v>
+      </c>
+      <c r="C3181" t="n">
+        <v>84100</v>
+      </c>
+      <c r="D3181" t="n">
+        <v>81600</v>
+      </c>
+      <c r="E3181" t="n">
+        <v>82800</v>
+      </c>
+      <c r="F3181" t="n">
+        <v>266236</v>
+      </c>
+      <c r="G3181" t="n">
+        <v>0.2421307506053269</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3182" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C3182" t="n">
+        <v>83400</v>
+      </c>
+      <c r="D3182" t="n">
+        <v>81800</v>
+      </c>
+      <c r="E3182" t="n">
+        <v>81900</v>
+      </c>
+      <c r="F3182" t="n">
+        <v>192374</v>
+      </c>
+      <c r="G3182" t="n">
+        <v>-1.08695652173913</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3183" t="n">
+        <v>82700</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>83000</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>80800</v>
+      </c>
+      <c r="E3183" t="n">
+        <v>81400</v>
+      </c>
+      <c r="F3183" t="n">
+        <v>330194</v>
+      </c>
+      <c r="G3183" t="n">
+        <v>-0.6105006105006106</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3184" t="n">
+        <v>79700</v>
+      </c>
+      <c r="C3184" t="n">
+        <v>81700</v>
+      </c>
+      <c r="D3184" t="n">
+        <v>77900</v>
+      </c>
+      <c r="E3184" t="n">
+        <v>80700</v>
+      </c>
+      <c r="F3184" t="n">
+        <v>514183</v>
+      </c>
+      <c r="G3184" t="n">
+        <v>-0.85995085995086</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3185" t="n">
+        <v>80600</v>
+      </c>
+      <c r="C3185" t="n">
+        <v>81500</v>
+      </c>
+      <c r="D3185" t="n">
+        <v>76700</v>
+      </c>
+      <c r="E3185" t="n">
+        <v>78200</v>
+      </c>
+      <c r="F3185" t="n">
+        <v>718828</v>
+      </c>
+      <c r="G3185" t="n">
+        <v>-3.097893432465924</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3186" t="n">
+        <v>76800</v>
+      </c>
+      <c r="C3186" t="n">
+        <v>77400</v>
+      </c>
+      <c r="D3186" t="n">
+        <v>74200</v>
+      </c>
+      <c r="E3186" t="n">
+        <v>76900</v>
+      </c>
+      <c r="F3186" t="n">
+        <v>696985</v>
+      </c>
+      <c r="G3186" t="n">
+        <v>-1.662404092071611</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3187" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C3187" t="n">
+        <v>76200</v>
+      </c>
+      <c r="D3187" t="n">
+        <v>74300</v>
+      </c>
+      <c r="E3187" t="n">
+        <v>74300</v>
+      </c>
+      <c r="F3187" t="n">
+        <v>572058</v>
+      </c>
+      <c r="G3187" t="n">
+        <v>-3.381014304291288</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3188" t="n">
+        <v>74500</v>
+      </c>
+      <c r="C3188" t="n">
+        <v>75000</v>
+      </c>
+      <c r="D3188" t="n">
+        <v>72800</v>
+      </c>
+      <c r="E3188" t="n">
+        <v>73100</v>
+      </c>
+      <c r="F3188" t="n">
+        <v>391422</v>
+      </c>
+      <c r="G3188" t="n">
+        <v>-1.61507402422611</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3189" t="n">
+        <v>72600</v>
+      </c>
+      <c r="C3189" t="n">
+        <v>77100</v>
+      </c>
+      <c r="D3189" t="n">
+        <v>72600</v>
+      </c>
+      <c r="E3189" t="n">
+        <v>76300</v>
+      </c>
+      <c r="F3189" t="n">
+        <v>365622</v>
+      </c>
+      <c r="G3189" t="n">
+        <v>4.377564979480164</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3190" t="n">
+        <v>75300</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>76000</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>73300</v>
+      </c>
+      <c r="E3190" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F3190" t="n">
+        <v>390124</v>
+      </c>
+      <c r="G3190" t="n">
+        <v>-1.703800786369594</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3191" t="n">
+        <v>76600</v>
+      </c>
+      <c r="C3191" t="n">
+        <v>80900</v>
+      </c>
+      <c r="D3191" t="n">
+        <v>75900</v>
+      </c>
+      <c r="E3191" t="n">
+        <v>79400</v>
+      </c>
+      <c r="F3191" t="n">
+        <v>459202</v>
+      </c>
+      <c r="G3191" t="n">
+        <v>5.866666666666666</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3192" t="n">
+        <v>79100</v>
+      </c>
+      <c r="C3192" t="n">
+        <v>80600</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>78600</v>
+      </c>
+      <c r="E3192" t="n">
+        <v>78800</v>
+      </c>
+      <c r="F3192" t="n">
+        <v>236470</v>
+      </c>
+      <c r="G3192" t="n">
+        <v>-0.7556675062972292</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3193" t="n">
+        <v>79600</v>
+      </c>
+      <c r="C3193" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D3193" t="n">
+        <v>76600</v>
+      </c>
+      <c r="E3193" t="n">
+        <v>77500</v>
+      </c>
+      <c r="F3193" t="n">
+        <v>424962</v>
+      </c>
+      <c r="G3193" t="n">
+        <v>-1.649746192893401</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3194" t="n">
+        <v>76900</v>
+      </c>
+      <c r="C3194" t="n">
+        <v>78800</v>
+      </c>
+      <c r="D3194" t="n">
+        <v>76600</v>
+      </c>
+      <c r="E3194" t="n">
+        <v>77800</v>
+      </c>
+      <c r="F3194" t="n">
+        <v>202150</v>
+      </c>
+      <c r="G3194" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3195" t="n">
+        <v>78200</v>
+      </c>
+      <c r="C3195" t="n">
+        <v>80900</v>
+      </c>
+      <c r="D3195" t="n">
+        <v>77600</v>
+      </c>
+      <c r="E3195" t="n">
+        <v>79700</v>
+      </c>
+      <c r="F3195" t="n">
+        <v>267325</v>
+      </c>
+      <c r="G3195" t="n">
+        <v>2.442159383033419</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3196" t="n">
+        <v>80400</v>
+      </c>
+      <c r="C3196" t="n">
+        <v>81600</v>
+      </c>
+      <c r="D3196" t="n">
+        <v>78700</v>
+      </c>
+      <c r="E3196" t="n">
+        <v>81000</v>
+      </c>
+      <c r="F3196" t="n">
+        <v>280815</v>
+      </c>
+      <c r="G3196" t="n">
+        <v>1.631116687578419</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3197" t="n">
+        <v>80300</v>
+      </c>
+      <c r="C3197" t="n">
+        <v>81200</v>
+      </c>
+      <c r="D3197" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E3197" t="n">
+        <v>79400</v>
+      </c>
+      <c r="F3197" t="n">
+        <v>395696</v>
+      </c>
+      <c r="G3197" t="n">
+        <v>-1.975308641975309</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3198" t="n">
+        <v>78600</v>
+      </c>
+      <c r="C3198" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D3198" t="n">
+        <v>78100</v>
+      </c>
+      <c r="E3198" t="n">
+        <v>78700</v>
+      </c>
+      <c r="F3198" t="n">
+        <v>199518</v>
+      </c>
+      <c r="G3198" t="n">
+        <v>-0.8816120906801008</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3199" t="n">
+        <v>79500</v>
+      </c>
+      <c r="C3199" t="n">
+        <v>80300</v>
+      </c>
+      <c r="D3199" t="n">
+        <v>78900</v>
+      </c>
+      <c r="E3199" t="n">
+        <v>79100</v>
+      </c>
+      <c r="F3199" t="n">
+        <v>162192</v>
+      </c>
+      <c r="G3199" t="n">
+        <v>0.5082592121982211</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3200" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C3200" t="n">
+        <v>80900</v>
+      </c>
+      <c r="D3200" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E3200" t="n">
+        <v>80300</v>
+      </c>
+      <c r="F3200" t="n">
+        <v>261987</v>
+      </c>
+      <c r="G3200" t="n">
+        <v>1.517067003792667</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3201" t="n">
+        <v>80300</v>
+      </c>
+      <c r="C3201" t="n">
+        <v>82000</v>
+      </c>
+      <c r="D3201" t="n">
+        <v>80300</v>
+      </c>
+      <c r="E3201" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F3201" t="n">
+        <v>240688</v>
+      </c>
+      <c r="G3201" t="n">
+        <v>1.2453300124533</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3202" t="n">
+        <v>81900</v>
+      </c>
+      <c r="C3202" t="n">
+        <v>82400</v>
+      </c>
+      <c r="D3202" t="n">
+        <v>80100</v>
+      </c>
+      <c r="E3202" t="n">
+        <v>80300</v>
+      </c>
+      <c r="F3202" t="n">
+        <v>309378</v>
+      </c>
+      <c r="G3202" t="n">
+        <v>-1.230012300123001</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3203" t="n">
+        <v>81700</v>
+      </c>
+      <c r="C3203" t="n">
+        <v>83600</v>
+      </c>
+      <c r="D3203" t="n">
+        <v>81100</v>
+      </c>
+      <c r="E3203" t="n">
+        <v>82300</v>
+      </c>
+      <c r="F3203" t="n">
+        <v>346723</v>
+      </c>
+      <c r="G3203" t="n">
+        <v>2.4906600249066</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3204" t="n">
+        <v>82800</v>
+      </c>
+      <c r="C3204" t="n">
+        <v>84900</v>
+      </c>
+      <c r="D3204" t="n">
+        <v>82800</v>
+      </c>
+      <c r="E3204" t="n">
+        <v>84200</v>
+      </c>
+      <c r="F3204" t="n">
+        <v>335604</v>
+      </c>
+      <c r="G3204" t="n">
+        <v>2.308626974483597</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3205" t="n">
+        <v>84200</v>
+      </c>
+      <c r="C3205" t="n">
+        <v>85900</v>
+      </c>
+      <c r="D3205" t="n">
+        <v>83300</v>
+      </c>
+      <c r="E3205" t="n">
+        <v>85400</v>
+      </c>
+      <c r="F3205" t="n">
+        <v>330045</v>
+      </c>
+      <c r="G3205" t="n">
+        <v>1.425178147268409</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3206" t="n">
+        <v>85500</v>
+      </c>
+      <c r="C3206" t="n">
+        <v>86700</v>
+      </c>
+      <c r="D3206" t="n">
+        <v>80900</v>
+      </c>
+      <c r="E3206" t="n">
+        <v>81400</v>
+      </c>
+      <c r="F3206" t="n">
+        <v>794177</v>
+      </c>
+      <c r="G3206" t="n">
+        <v>-4.683840749414521</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3207" t="n">
+        <v>81800</v>
+      </c>
+      <c r="C3207" t="n">
+        <v>82600</v>
+      </c>
+      <c r="D3207" t="n">
+        <v>80600</v>
+      </c>
+      <c r="E3207" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F3207" t="n">
+        <v>332008</v>
+      </c>
+      <c r="G3207" t="n">
+        <v>-0.1228501228501229</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3208" t="n">
+        <v>82000</v>
+      </c>
+      <c r="C3208" t="n">
+        <v>82200</v>
+      </c>
+      <c r="D3208" t="n">
+        <v>80900</v>
+      </c>
+      <c r="E3208" t="n">
+        <v>80900</v>
+      </c>
+      <c r="F3208" t="n">
+        <v>237176</v>
+      </c>
+      <c r="G3208" t="n">
+        <v>-0.4920049200492005</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3209" t="n">
+        <v>80300</v>
+      </c>
+      <c r="C3209" t="n">
+        <v>81200</v>
+      </c>
+      <c r="D3209" t="n">
+        <v>79400</v>
+      </c>
+      <c r="E3209" t="n">
+        <v>81100</v>
+      </c>
+      <c r="F3209" t="n">
+        <v>225834</v>
+      </c>
+      <c r="G3209" t="n">
+        <v>0.2472187886279357</v>
       </c>
     </row>
   </sheetData>
